--- a/Interface/cases/data.xlsx
+++ b/Interface/cases/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>method</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -36,24 +36,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>www.baidu.com</t>
+    <t>{"Content-Type":"application/json"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"小米","pwd":"123456"}</t>
+    <t>{
+ "captcha": "",
+ "clientSecret": "MIICXQIBAAKBgQCxwfRs7dncpWJ27OQ9rIjHeBbkaigRY4in+DEKBsbmT3lpb2C6JQyqgxl9C+l5zSbONp0OIibaAVsLPSbUPVwIDAQABAoGAK76VmKIuiI2fZJQbdq6oDQ",
+ "isKeepLogin": true,
+ "password": "123456",
+ "randomStr": "1546397793846",
+ "username": "1250878171@qq.com"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Accept: text/javascript"}</t>
+    <t>appapi/uc/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -112,12 +123,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,23 +443,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="72.875" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="74.375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="88.75" customWidth="1"/>
+    <col min="6" max="6" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -456,28 +478,37 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://pre.svocloud.com/appapi/uc/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
